--- a/medicine/Psychotrope/Thou_(bière)/Thou_(bière).xlsx
+++ b/medicine/Psychotrope/Thou_(bière)/Thou_(bière).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Thou_(bi%C3%A8re)</t>
+          <t>Thou_(bière)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Thou est une bière blanche brassée par la brasserie artisanale française « Rivière d'Ain » (Raison sociale : Maison de Brasseur) à Jujurieux. Le gérant de la brasserie est Patrice Pobel. La bière Thou titre à 5,4 degrés et existe en différentes contenances[1],[2]. En 2021, elle est produite à hauteur de 500 hectolitres par an[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Thou est une bière blanche brassée par la brasserie artisanale française « Rivière d'Ain » (Raison sociale : Maison de Brasseur) à Jujurieux. Le gérant de la brasserie est Patrice Pobel. La bière Thou titre à 5,4 degrés et existe en différentes contenances,. En 2021, elle est produite à hauteur de 500 hectolitres par an.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Thou_(bi%C3%A8re)</t>
+          <t>Thou_(bière)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2013 et en 2016, elle est élue meilleure bière du Monde dans la catégorie « pale » aux World Beer Awards[4],[3],[5],[6],[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2013 et en 2016, elle est élue meilleure bière du Monde dans la catégorie « pale » aux World Beer Awards.
 </t>
         </is>
       </c>
